--- a/自然生态bug/students.xlsx
+++ b/自然生态bug/students.xlsx
@@ -128,12 +128,12 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="952500"/>
+    <ext cx="666750" cy="666750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -153,12 +153,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="952500"/>
+    <ext cx="666750" cy="666750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -178,12 +178,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="952500"/>
+    <ext cx="666750" cy="666750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -203,12 +203,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="952500"/>
+    <ext cx="666750" cy="666750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -228,12 +228,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="952500"/>
+    <ext cx="666750" cy="666750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -253,12 +253,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="952500"/>
+    <ext cx="666750" cy="666750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -278,12 +278,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="952500"/>
+    <ext cx="666750" cy="666750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="7" name="Image 7" descr="Picture"/>
@@ -291,6 +291,206 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="666750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="666750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="666750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="666750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="666750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="666750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="666750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="666750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -593,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +877,11 @@
           <t>动物图片7</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>动物图片8</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -717,6 +922,48 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>体长33-40厘米。雄鸟具有明显的黑色喉部，并带有白色宽边延伸到眼先，眼前有一细黑纹，眼后具一短白斑，羽冠显著。通体褐色，密布虫蠹状斑。两翼杂黑褐色斑。肩羽及翼上覆羽处有白色条带，尾羽褐色，外侧尾羽有黑色次端斑和白色端斑。雌鸟较雄鸟暗淡，喉部颜色较浅。虹膜深褐色，喙黑色，脚角质色。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>脊索动物门</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>鸟纲</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>斑尾榛鸡</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tetrastes sewerzowi</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>一级</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>类似于花尾榛鸡，但是不善鸣叫。喜在针阔叶混交林中活动，常出没于柳树灌丛。</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>中国鸟类特有种。分布于甘肃中南部、青海东南部、四川西北部、西藏东部。</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>体长31-38厘米。体色明显比花尾榛鸡深。胸部褐色，下体白色区域较多，具有黑褐色的横斑，胁部具褐色斑。虹膜褐色，喙黑色，脚灰色。</t>
         </is>
       </c>
     </row>
